--- a/biology/Médecine/Clomipramine/Clomipramine.xlsx
+++ b/biology/Médecine/Clomipramine/Clomipramine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La clomipramine (Anafranil) est un médicament psychotrope utilisé comme antidépresseur et anxiolytique. Il fait partie de la classe des antidépresseurs tricycliques. Il a été développé dans les années 1960 par le fabricant suisse Geigy (aujourd'hui Novartis) et est resté en usage dans le monde entier depuis lors. Il agit comme inhibiteur de la recapture de certains neurotransmetteurs, la sérotonine et la noradrénaline, dans le système nerveux central[2].
+La clomipramine (Anafranil) est un médicament psychotrope utilisé comme antidépresseur et anxiolytique. Il fait partie de la classe des antidépresseurs tricycliques. Il a été développé dans les années 1960 par le fabricant suisse Geigy (aujourd'hui Novartis) et est resté en usage dans le monde entier depuis lors. Il agit comme inhibiteur de la recapture de certains neurotransmetteurs, la sérotonine et la noradrénaline, dans le système nerveux central.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Indications thérapeutiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dépression
-Trouble obsessionnel compulsif (TOC)[3]
+Trouble obsessionnel compulsif (TOC)
 Attaques de panique
 Narcolepsie
 Éjaculation précoce
@@ -550,9 +564,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clomipramine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clomipramine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
